--- a/globals.xlsx
+++ b/globals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\r studio\converter\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\r studio\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B34455-C9D2-4EAD-A195-590BBB45AACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5D6BC-DB44-4669-9684-8D7F8A167B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="72">
   <si>
     <t>Function</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>IPD_MeanSD</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>numeric</t>
   </si>
 </sst>
 </file>
@@ -638,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9188BC-DF61-45E0-9330-C784012EB633}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2603,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003599B1-E80F-4279-81E3-4F2640C97B1E}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,7 +2626,7 @@
     <col min="8" max="27" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -2639,32 +2648,44 @@
       <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2683,8 +2704,11 @@
       <c r="F5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2703,8 +2727,11 @@
       <c r="F6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2723,8 +2750,11 @@
       <c r="F7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2743,8 +2773,11 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2763,8 +2796,11 @@
       <c r="F9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2783,8 +2819,11 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2803,8 +2842,11 @@
       <c r="F11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2823,8 +2865,11 @@
       <c r="F12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2843,8 +2888,11 @@
       <c r="F13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2863,8 +2911,11 @@
       <c r="F14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2883,8 +2934,11 @@
       <c r="F15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2903,165 +2957,219 @@
       <c r="F16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="3"/>
     </row>
   </sheetData>

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\r studio\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5D6BC-DB44-4669-9684-8D7F8A167B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B2F9B-F8E0-40F9-B5A1-B1BF1471CE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Mandatory" sheetId="3" r:id="rId2"/>
     <sheet name="Output" sheetId="2" r:id="rId3"/>
     <sheet name="Names" sheetId="4" r:id="rId4"/>
+    <sheet name="Categories" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
   <si>
     <t>Function</t>
   </si>
@@ -107,9 +108,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>CI%</t>
-  </si>
-  <si>
     <t>ulci</t>
   </si>
   <si>
@@ -255,6 +253,42 @@
   </si>
   <si>
     <t>numeric</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>CI_percent</t>
+  </si>
+  <si>
+    <t>percent_change</t>
+  </si>
+  <si>
+    <t>Percent Change from Baseline</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Mean &amp; SD</t>
+  </si>
+  <si>
+    <t>Indirect Meta</t>
+  </si>
+  <si>
+    <t>Group Combination</t>
+  </si>
+  <si>
+    <t>Summary of Patient data</t>
+  </si>
+  <si>
+    <t>labs</t>
+  </si>
+  <si>
+    <t>Unit Conversions</t>
   </si>
 </sst>
 </file>
@@ -323,12 +357,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -349,9 +382,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +422,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9188BC-DF61-45E0-9330-C784012EB633}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="Y2" sqref="Y2:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +689,7 @@
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,10 +697,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -679,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -688,16 +721,16 @@
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>20</v>
@@ -706,28 +739,34 @@
         <v>21</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -758,8 +797,14 @@
       <c r="S2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -784,8 +829,14 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -816,8 +867,14 @@
       <c r="N4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -848,8 +905,14 @@
       <c r="P5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -868,8 +931,14 @@
       <c r="T6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -894,8 +963,14 @@
       <c r="S7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -914,8 +989,14 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -931,8 +1012,11 @@
       <c r="V9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -978,8 +1062,14 @@
       <c r="V10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -995,8 +1085,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1018,8 +1111,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1038,62 +1134,41 @@
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>67</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
       <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
         <v>1</v>
       </c>
     </row>
@@ -1104,102 +1179,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFC011-93B8-40BC-A6EB-1563586BDB38}">
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1215,17 +1299,20 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="V2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>1</v>
       </c>
       <c r="W2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1247,17 +1334,20 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="V3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1279,17 +1369,20 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="V4">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1305,14 +1398,17 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1334,14 +1430,17 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="H6">
         <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1363,14 +1462,17 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1386,10 +1488,10 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
       <c r="Q8">
@@ -1398,8 +1500,11 @@
       <c r="R8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1421,10 +1526,10 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="P9">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
       <c r="Q9">
@@ -1433,8 +1538,11 @@
       <c r="R9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1456,10 +1564,10 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="P10">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>1</v>
       </c>
       <c r="Q10">
@@ -1468,8 +1576,11 @@
       <c r="R10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1485,20 +1596,23 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="S11">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
         <v>1</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1520,20 +1634,23 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="S12">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
         <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1555,20 +1672,23 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="S13">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
         <v>1</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1590,20 +1710,23 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="M14">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1625,20 +1748,23 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="M15">
+      <c r="H15">
         <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="V15">
+      <c r="O15">
         <v>1</v>
       </c>
       <c r="W15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1660,17 +1786,20 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="M16">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1692,8 +1821,11 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1709,14 +1841,17 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1733,25 +1868,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1768,522 +1900,108 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="H20">
         <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
+      <c r="AB23">
         <v>1</v>
       </c>
     </row>
@@ -2294,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63FE69D-38BB-4D46-B519-F8C9B6D3DD48}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,7 +2024,7 @@
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2317,19 +2035,22 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2351,8 +2072,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2374,8 +2098,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2397,8 +2124,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2420,8 +2150,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2443,8 +2176,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2466,8 +2202,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2489,8 +2228,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2512,8 +2254,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2535,8 +2280,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2558,8 +2306,11 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2581,8 +2332,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2603,6 +2357,61 @@
       </c>
       <c r="G13">
         <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2614,13 +2423,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003599B1-E80F-4279-81E3-4F2640C97B1E}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="31.140625" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="27" width="18" customWidth="1"/>
@@ -2628,28 +2437,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2657,32 +2466,32 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2702,10 +2511,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2725,10 +2534,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2748,10 +2557,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2774,7 +2583,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2794,10 +2603,10 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2820,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2840,10 +2649,10 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2863,10 +2672,10 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2886,10 +2695,10 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2909,10 +2718,10 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2932,10 +2741,10 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2955,10 +2764,10 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
@@ -2966,21 +2775,21 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
@@ -2988,10 +2797,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
@@ -2999,21 +2808,21 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
@@ -3024,29 +2833,29 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
@@ -3054,10 +2863,10 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
@@ -3065,94 +2874,110 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
       </c>
-      <c r="H26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
@@ -3171,6 +2996,64 @@
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D1C26F-6FDD-42BA-A71C-9885E5C52A64}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\r studio\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B2F9B-F8E0-40F9-B5A1-B1BF1471CE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC0B0B-5D58-4452-B17F-E9EA0E015BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Output" sheetId="2" r:id="rId3"/>
     <sheet name="Names" sheetId="4" r:id="rId4"/>
     <sheet name="Categories" sheetId="6" r:id="rId5"/>
+    <sheet name="Presets" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="90">
   <si>
     <t>Function</t>
   </si>
@@ -289,6 +290,27 @@
   </si>
   <si>
     <t>Unit Conversions</t>
+  </si>
+  <si>
+    <t>MSD1</t>
+  </si>
+  <si>
+    <t>MSD2</t>
+  </si>
+  <si>
+    <t>Mcomb</t>
+  </si>
+  <si>
+    <t>IPD</t>
+  </si>
+  <si>
+    <t>EsP</t>
+  </si>
+  <si>
+    <t>EsC</t>
+  </si>
+  <si>
+    <t>EsD</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFC011-93B8-40BC-A6EB-1563586BDB38}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,4 +3080,231 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC55B6A7-04F0-43D0-9771-5F1DA7C24A5A}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/globals.xlsx
+++ b/globals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\r studio\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC0B0B-5D58-4452-B17F-E9EA0E015BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7315FE-83A2-4F58-BA76-178D9824CC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -250,9 +250,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>char</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>EsD</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
         <v>21</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>22</v>
@@ -782,10 +782,10 @@
         <v>64</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1278,7 +1278,7 @@
         <v>21</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>22</v>
@@ -1299,10 +1299,10 @@
         <v>64</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2445,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003599B1-E80F-4279-81E3-4F2640C97B1E}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,7 +2491,7 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2536,7 +2536,7 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2605,7 +2605,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
         <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2697,7 +2697,7 @@
         <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2789,7 +2789,7 @@
         <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
@@ -2800,7 +2800,7 @@
         <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
@@ -2811,7 +2811,7 @@
         <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
@@ -2822,7 +2822,7 @@
         <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
         <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
@@ -2844,7 +2844,7 @@
         <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
@@ -2855,7 +2855,7 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
         <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
@@ -2888,7 +2888,7 @@
         <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
@@ -2899,18 +2899,18 @@
         <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
@@ -2921,7 +2921,7 @@
         <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
@@ -2932,7 +2932,7 @@
         <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
@@ -2954,7 +2954,7 @@
         <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
         <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
@@ -2976,29 +2976,29 @@
         <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
         <v>73</v>
       </c>
-      <c r="F34" t="s">
-        <v>74</v>
-      </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
         <v>81</v>
       </c>
-      <c r="F35" t="s">
-        <v>82</v>
-      </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
@@ -3039,10 +3039,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3050,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3058,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3086,33 +3086,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC55B6A7-04F0-43D0-9771-5F1DA7C24A5A}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3224,7 +3224,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\r studio\r_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\TreatMeta\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7315FE-83A2-4F58-BA76-178D9824CC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454271DC-90CD-422D-8E09-39429B113CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
   <si>
     <t>Function</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>autocomplete</t>
   </si>
 </sst>
 </file>
@@ -2445,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003599B1-E80F-4279-81E3-4F2640C97B1E}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,7 +3001,7 @@
         <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\TreatMeta\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454271DC-90CD-422D-8E09-39429B113CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDDC89-3AD1-4BE7-A6FB-DCE5E871B7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="91">
   <si>
     <t>Function</t>
   </si>
@@ -2448,7 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003599B1-E80F-4279-81E3-4F2640C97B1E}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -3089,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC55B6A7-04F0-43D0-9771-5F1DA7C24A5A}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,8 +3223,8 @@
       <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>80</v>
@@ -3244,7 +3244,7 @@
         <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3258,7 +3258,7 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3269,12 +3269,15 @@
         <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\TreatMeta\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDDDC89-3AD1-4BE7-A6FB-DCE5E871B7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C2D343-BBF2-4AF7-83A3-441CBF60D603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
   <si>
     <t>Function</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Correlation Coeffecient</t>
   </si>
   <si>
-    <t>Change of Standard Deviation</t>
-  </si>
-  <si>
     <t>Mean (Difference)</t>
   </si>
   <si>
@@ -314,6 +311,39 @@
   </si>
   <si>
     <t>autocomplete</t>
+  </si>
+  <si>
+    <t>changeMean</t>
+  </si>
+  <si>
+    <t>preMean</t>
+  </si>
+  <si>
+    <t>Mean (Pre)</t>
+  </si>
+  <si>
+    <t>Mean (Post)</t>
+  </si>
+  <si>
+    <t>postMean</t>
+  </si>
+  <si>
+    <t>preSD</t>
+  </si>
+  <si>
+    <t>postSD</t>
+  </si>
+  <si>
+    <t>SD (Pre)</t>
+  </si>
+  <si>
+    <t>SD (Post)</t>
+  </si>
+  <si>
+    <t>Mean change</t>
+  </si>
+  <si>
+    <t>SD change</t>
   </si>
 </sst>
 </file>
@@ -703,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9188BC-DF61-45E0-9330-C784012EB633}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y15"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +744,7 @@
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -764,7 +794,7 @@
         <v>21</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>22</v>
@@ -782,16 +812,13 @@
         <v>34</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -825,11 +852,8 @@
       <c r="X2">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -857,11 +881,8 @@
       <c r="X3">
         <v>1</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -895,11 +916,8 @@
       <c r="X4">
         <v>1</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -933,11 +951,8 @@
       <c r="X5">
         <v>1</v>
       </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -959,11 +974,8 @@
       <c r="X6">
         <v>1</v>
       </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -991,11 +1003,8 @@
       <c r="X7">
         <v>1</v>
       </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1017,11 +1026,8 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1037,11 +1043,11 @@
       <c r="V9">
         <v>1</v>
       </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1090,11 +1096,8 @@
       <c r="X10">
         <v>1</v>
       </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1110,11 +1113,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1136,11 +1139,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1159,41 +1162,41 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>66</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
       <c r="W15">
         <v>1</v>
       </c>
-      <c r="Y15">
+      <c r="X15">
         <v>1</v>
       </c>
     </row>
@@ -1204,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFC011-93B8-40BC-A6EB-1563586BDB38}">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1219,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1254,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
@@ -1281,7 +1284,7 @@
         <v>21</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>22</v>
@@ -1299,16 +1302,13 @@
         <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2027,6 +2027,90 @@
         <v>4</v>
       </c>
       <c r="AB23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>1</v>
       </c>
     </row>
@@ -2037,19 +2121,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63FE69D-38BB-4D46-B519-F8C9B6D3DD48}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2069,13 +2153,16 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2126,8 +2216,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2152,8 +2245,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2178,8 +2274,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2204,8 +2303,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2256,8 +2361,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2277,21 +2385,24 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2300,16 +2411,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2334,8 +2448,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2360,8 +2477,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2386,37 +2506,43 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>66</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
       <c r="B15">
         <v>1</v>
       </c>
@@ -2436,6 +2562,9 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
     </row>
@@ -2446,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003599B1-E80F-4279-81E3-4F2640C97B1E}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2612,7 @@
         <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2494,7 +2623,7 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2505,7 +2634,7 @@
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2516,7 +2645,7 @@
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2536,10 +2665,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2559,10 +2688,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2582,10 +2711,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2608,7 +2737,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2628,10 +2757,10 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2654,7 +2783,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2674,10 +2803,10 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2697,10 +2826,10 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2720,10 +2849,10 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2746,7 +2875,7 @@
         <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2769,7 +2898,7 @@
         <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2792,7 +2921,7 @@
         <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
@@ -2803,18 +2932,18 @@
         <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
@@ -2822,10 +2951,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
@@ -2836,7 +2965,7 @@
         <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
@@ -2847,7 +2976,7 @@
         <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
@@ -2858,7 +2987,7 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
@@ -2869,7 +2998,7 @@
         <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
@@ -2880,7 +3009,7 @@
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
@@ -2891,7 +3020,7 @@
         <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
@@ -2902,18 +3031,18 @@
         <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
@@ -2924,7 +3053,7 @@
         <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
@@ -2935,7 +3064,7 @@
         <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
@@ -2946,7 +3075,7 @@
         <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
@@ -2957,70 +3086,125 @@
         <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E32" s="3" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="s">
         <v>80</v>
       </c>
-      <c r="F35" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="3"/>
+      <c r="H40" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3042,10 +3226,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3077,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC55B6A7-04F0-43D0-9771-5F1DA7C24A5A}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3097,25 +3281,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,7 +3391,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3215,7 +3399,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -3227,7 +3411,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3241,7 +3425,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -3249,7 +3433,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -3266,10 +3450,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3277,7 +3461,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\TreatMeta\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C2D343-BBF2-4AF7-83A3-441CBF60D603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C519702-E05F-4835-B1AC-7AB1061E6425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="109">
   <si>
     <t>Function</t>
   </si>
@@ -301,9 +301,6 @@
     <t>EsP</t>
   </si>
   <si>
-    <t>EsC</t>
-  </si>
-  <si>
     <t>EsD</t>
   </si>
   <si>
@@ -344,6 +341,33 @@
   </si>
   <si>
     <t>SD change</t>
+  </si>
+  <si>
+    <t>Lab Conversions</t>
+  </si>
+  <si>
+    <t>calculate_sm</t>
+  </si>
+  <si>
+    <t>SE of TE</t>
+  </si>
+  <si>
+    <t>apply_labs</t>
+  </si>
+  <si>
+    <t>lab_apply</t>
+  </si>
+  <si>
+    <t>lab_output</t>
+  </si>
+  <si>
+    <t>Converted Values</t>
+  </si>
+  <si>
+    <t>Labs</t>
+  </si>
+  <si>
+    <t>Values to be converted</t>
   </si>
 </sst>
 </file>
@@ -733,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9188BC-DF61-45E0-9330-C784012EB633}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +768,7 @@
     <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,8 +841,11 @@
       <c r="X1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -853,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -882,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -917,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -952,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -975,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1117,86 +1144,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>65</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
         <v>1</v>
       </c>
     </row>
@@ -1207,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFC011-93B8-40BC-A6EB-1563586BDB38}">
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1277,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,8 +1365,11 @@
       <c r="AC1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1372,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1529,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1567,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1605,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1637,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1713,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1751,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1850,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1876,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1908,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1943,15 +2004,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1960,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1975,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1983,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2007,61 +2068,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>4</v>
       </c>
-      <c r="AB23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2075,11 +2145,8 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2087,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2104,13 +2171,65 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
         <v>1</v>
       </c>
     </row>
@@ -2121,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63FE69D-38BB-4D46-B519-F8C9B6D3DD48}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I17" sqref="B17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,7 +2252,7 @@
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2272,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>34</v>
@@ -2161,8 +2280,11 @@
       <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2190,8 +2312,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2219,8 +2344,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2376,11 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2277,8 +2408,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2306,8 +2440,11 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2335,8 +2472,11 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2364,8 +2504,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2393,8 +2536,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2422,8 +2568,11 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2451,120 +2600,199 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>65</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>1</v>
       </c>
     </row>
@@ -2575,21 +2803,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003599B1-E80F-4279-81E3-4F2640C97B1E}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="27" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="28" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2602,609 +2830,998 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" t="s">
+        <v>106</v>
+      </c>
+      <c r="I55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E46" s="3"/>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3213,10 +3830,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D1C26F-6FDD-42BA-A71C-9885E5C52A64}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,6 +3881,14 @@
         <v>78</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3273,11 +3898,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC55B6A7-04F0-43D0-9771-5F1DA7C24A5A}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3290,10 +3918,10 @@
         <v>85</v>
       </c>
       <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>83</v>
@@ -3313,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -3336,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3382,7 +4010,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3401,18 +4029,16 @@
       <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
+      <c r="D6" t="s">
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3421,77 +4047,68 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" t="s">
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
+      <c r="C9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\TreatMeta\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C519702-E05F-4835-B1AC-7AB1061E6425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6298219F-8FF1-49E1-9270-522880253479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="109">
   <si>
     <t>Function</t>
   </si>
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFC011-93B8-40BC-A6EB-1563586BDB38}">
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,9 +1420,6 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="M3">
         <v>1</v>
       </c>
@@ -1453,9 +1450,6 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
         <v>1</v>
       </c>
       <c r="M4">
@@ -1516,9 +1510,6 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="L6">
         <v>1</v>
       </c>
@@ -1548,9 +1539,6 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
@@ -1612,9 +1600,6 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="M9">
         <v>1</v>
       </c>
@@ -1650,9 +1635,6 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="M10">
         <v>1</v>
       </c>
@@ -1720,9 +1702,6 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
       <c r="M12">
         <v>1</v>
       </c>
@@ -1758,9 +1737,6 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
       <c r="M13">
         <v>1</v>
       </c>
@@ -1796,9 +1772,6 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="J14">
         <v>1</v>
       </c>
@@ -1834,9 +1807,6 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1870,9 +1840,6 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
         <v>1</v>
       </c>
       <c r="L16">
@@ -2805,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003599B1-E80F-4279-81E3-4F2640C97B1E}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53:I54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,10 +3863,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC55B6A7-04F0-43D0-9771-5F1DA7C24A5A}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,7 +3922,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4024,7 +3991,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -4042,7 +4009,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -4056,7 +4023,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -4070,7 +4037,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -4078,36 +4045,41 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\TreatMeta\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6298219F-8FF1-49E1-9270-522880253479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F3E2D-0510-495B-8F26-E4122A424EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
+    <workbookView xWindow="7200" yWindow="525" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="113">
   <si>
     <t>Function</t>
   </si>
@@ -235,9 +235,6 @@
     <t>patient_data</t>
   </si>
   <si>
-    <t>Individual Patient Data</t>
-  </si>
-  <si>
     <t>combine_MeanSD</t>
   </si>
   <si>
@@ -368,6 +365,21 @@
   </si>
   <si>
     <t>Values to be converted</t>
+  </si>
+  <si>
+    <t>Individual Subject Data</t>
+  </si>
+  <si>
+    <t>logTE</t>
+  </si>
+  <si>
+    <t>logSeTE</t>
+  </si>
+  <si>
+    <t>log(TE)</t>
+  </si>
+  <si>
+    <t>log(seTE)</t>
   </si>
 </sst>
 </file>
@@ -757,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9188BC-DF61-45E0-9330-C784012EB633}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>22</v>
@@ -839,10 +851,10 @@
         <v>63</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1146,7 +1158,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1217,19 +1229,7 @@
       <c r="A15" t="s">
         <v>65</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="W15">
         <v>1</v>
       </c>
       <c r="X15">
@@ -1238,23 +1238,12 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
+      <c r="Y16">
         <v>1</v>
       </c>
     </row>
@@ -1265,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFC011-93B8-40BC-A6EB-1563586BDB38}">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H16"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1283,7 @@
         <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1342,7 +1331,7 @@
         <v>21</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>22</v>
@@ -1363,10 +1352,10 @@
         <v>63</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -1650,7 +1639,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1667,22 +1656,22 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1702,22 +1691,22 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1737,28 +1726,28 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1769,25 +1758,22 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1807,31 +1793,31 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1842,51 +1828,60 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1895,126 +1890,135 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>1</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2022,22 +2026,22 @@
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2054,28 +2058,28 @@
       <c r="F23">
         <v>3</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2084,119 +2088,500 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>5</v>
       </c>
-      <c r="AC28">
-        <v>1</v>
-      </c>
-      <c r="AD28">
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
         <v>1</v>
       </c>
     </row>
@@ -2207,19 +2592,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63FE69D-38BB-4D46-B519-F8C9B6D3DD48}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="B17:I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2236,22 +2621,28 @@
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2282,8 +2673,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2314,8 +2711,14 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2346,8 +2749,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2378,8 +2787,14 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2410,8 +2825,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2442,8 +2863,14 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2474,8 +2901,14 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2492,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2506,8 +2939,14 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2527,19 +2966,25 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2556,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2570,10 +3015,16 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2588,10 +3039,10 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2602,8 +3053,14 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2634,8 +3091,14 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2666,43 +3129,55 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
       <c r="B16">
         <v>1</v>
       </c>
@@ -2725,15 +3200,21 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2760,6 +3241,12 @@
         <v>0</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>1</v>
       </c>
     </row>
@@ -2770,10 +3257,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003599B1-E80F-4279-81E3-4F2640C97B1E}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,7 +3285,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>38</v>
@@ -2810,7 +3297,7 @@
         <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2821,7 +3308,7 @@
         <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2832,7 +3319,7 @@
         <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2843,7 +3330,7 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2869,7 +3356,7 @@
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2895,7 +3382,7 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2921,7 +3408,7 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2947,7 +3434,7 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2973,7 +3460,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,7 +3486,7 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3025,7 +3512,7 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3051,7 +3538,7 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3077,7 +3564,7 @@
         <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3103,7 +3590,7 @@
         <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3129,7 +3616,7 @@
         <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3155,7 +3642,7 @@
         <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3181,7 +3668,7 @@
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3207,7 +3694,7 @@
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3233,7 +3720,7 @@
         <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3259,7 +3746,7 @@
         <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3285,7 +3772,7 @@
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3311,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3337,7 +3824,7 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3363,7 +3850,7 @@
         <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3389,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3415,7 +3902,7 @@
         <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3441,7 +3928,7 @@
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3467,7 +3954,7 @@
         <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3478,7 +3965,7 @@
         <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3489,7 +3976,7 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3500,7 +3987,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3511,7 +3998,7 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.25">
@@ -3522,7 +4009,7 @@
         <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.25">
@@ -3533,7 +4020,7 @@
         <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.25">
@@ -3544,7 +4031,7 @@
         <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.25">
@@ -3555,7 +4042,7 @@
         <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="6:9" x14ac:dyDescent="0.25">
@@ -3566,7 +4053,7 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.25">
@@ -3577,18 +4064,18 @@
         <v>52</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F39" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
         <v>53</v>
       </c>
       <c r="I39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="6:9" x14ac:dyDescent="0.25">
@@ -3599,7 +4086,7 @@
         <v>54</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="6:9" x14ac:dyDescent="0.25">
@@ -3610,7 +4097,7 @@
         <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="6:9" x14ac:dyDescent="0.25">
@@ -3621,7 +4108,7 @@
         <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.25">
@@ -3632,62 +4119,62 @@
         <v>57</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s">
         <v>90</v>
       </c>
-      <c r="G44" t="s">
-        <v>91</v>
-      </c>
       <c r="I44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F45" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F46" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F47" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="6:9" x14ac:dyDescent="0.25">
@@ -3695,10 +4182,10 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.25">
@@ -3706,89 +4193,111 @@
         <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="I50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
         <v>71</v>
       </c>
-      <c r="G51" t="s">
-        <v>72</v>
-      </c>
       <c r="I51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52" s="3" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53" s="3" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F54" s="3" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F55" s="3" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
         <v>79</v>
       </c>
-      <c r="G56" t="s">
-        <v>80</v>
-      </c>
-      <c r="I56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F60" s="3"/>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3810,10 +4319,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3821,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3829,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3837,7 +4346,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3845,7 +4354,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3853,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3866,7 +4375,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3876,25 +4385,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3977,7 +4486,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3997,7 +4506,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>30</v>
@@ -4042,25 +4551,40 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/globals.xlsx
+++ b/globals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\TreatMeta\r_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F3E2D-0510-495B-8F26-E4122A424EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9966A11-710F-4571-AE8C-851182F8435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="525" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D5FC97F5-EF2E-4254-A4B2-5AC9B147C8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="113">
   <si>
     <t>Function</t>
   </si>
@@ -1254,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFC011-93B8-40BC-A6EB-1563586BDB38}">
-  <dimension ref="A1:AD40"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,16 +2073,16 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2090,16 +2090,10 @@
       <c r="F24">
         <v>3</v>
       </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
         <v>1</v>
       </c>
     </row>
@@ -2122,10 +2116,10 @@
       <c r="F25">
         <v>3</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
       <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25">
@@ -2137,7 +2131,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2154,16 +2148,16 @@
       <c r="F26">
         <v>3</v>
       </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
         <v>1</v>
       </c>
     </row>
@@ -2186,10 +2180,10 @@
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
       <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
       <c r="T27">
@@ -2201,7 +2195,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2216,27 +2210,24 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2251,27 +2242,18 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2291,31 +2273,34 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="L30">
+      <c r="J30">
         <v>1</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2323,19 +2308,28 @@
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2344,56 +2338,56 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="P33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2404,31 +2398,22 @@
       <c r="F34">
         <v>2</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
       <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="P34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2442,25 +2427,25 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
+      <c r="H35">
         <v>1</v>
       </c>
       <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2469,15 +2454,27 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="M36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2489,38 +2486,44 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="M37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="AB38">
         <v>1</v>
       </c>
     </row>
@@ -2529,13 +2532,13 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2544,44 +2547,93 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>102</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>5</v>
       </c>
-      <c r="AC40">
-        <v>1</v>
-      </c>
-      <c r="AD40">
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
         <v>1</v>
       </c>
     </row>
@@ -2594,7 +2646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63FE69D-38BB-4D46-B519-F8C9B6D3DD48}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -3259,8 +3311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003599B1-E80F-4279-81E3-4F2640C97B1E}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:I53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4374,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC55B6A7-04F0-43D0-9771-5F1DA7C24A5A}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4552,7 +4604,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4560,7 +4612,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4568,7 +4620,7 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4576,7 +4628,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4584,12 +4636,15 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
